--- a/data/change_BG.xlsx
+++ b/data/change_BG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/project_git_repo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2C207E-DEC7-EE4B-853A-F2280106832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC11DE9-6580-264F-843D-87F96A3F5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21306,10 +21306,10 @@
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F195" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G193" sqref="G193"/>
+      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -34398,10 +34398,10 @@
   <dimension ref="A1:AU227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AH87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169:XFD169"/>
+      <selection pane="bottomRight" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
